--- a/ConfigData/Xlsx/MainIcon.xlsx
+++ b/ConfigData/Xlsx/MainIcon.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户目录\我的文档\FEWin\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68E6AE87-6AE5-4546-A1A5-DB1EA0BC76CC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="MainIcon" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>real</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>打开主菜单(ESC)</t>
   </si>
@@ -102,66 +101,12 @@
     <t>MainIcon5</t>
   </si>
   <si>
-    <t>卡组</t>
-  </si>
-  <si>
-    <t>MainIcon7</t>
-  </si>
-  <si>
     <t>物品</t>
   </si>
   <si>
     <t>MainIcon2</t>
   </si>
   <si>
-    <t>MainIcon4</t>
-  </si>
-  <si>
-    <t>打开魔法书</t>
-  </si>
-  <si>
-    <t>MapButton3</t>
-  </si>
-  <si>
-    <t>MapButton1</t>
-  </si>
-  <si>
-    <t>MapButton2</t>
-  </si>
-  <si>
-    <t>卡片</t>
-  </si>
-  <si>
-    <t>打开卡片商店面板</t>
-  </si>
-  <si>
-    <t>锦标</t>
-  </si>
-  <si>
-    <t>打开赛事锦标</t>
-  </si>
-  <si>
-    <t>SideButton5</t>
-  </si>
-  <si>
-    <t>转盘</t>
-  </si>
-  <si>
-    <t>打开幸运转盘界面</t>
-  </si>
-  <si>
-    <t>SideButton16</t>
-  </si>
-  <si>
-    <t>问答</t>
-  </si>
-  <si>
-    <t>打开问答界面</t>
-  </si>
-  <si>
-    <t>SideButton7</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -214,10 +159,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>城堡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>任务</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -226,22 +167,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>合成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开每日合成卡牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideButton2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideButton9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>序列</t>
   </si>
   <si>
@@ -306,65 +231,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>离开</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideButton6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainIcon6</t>
-  </si>
-  <si>
-    <t>定制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开副本故事面板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideButton3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>MainIcon3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>排行榜</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开世界地图</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看城堡的状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>查看我的物品</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>查看我的副本定制卡组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑我的卡组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>挑战自己结识的对手</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -386,24 +260,12 @@
   </si>
   <si>
     <t>MainIcon10</t>
-  </si>
-  <si>
-    <t>SideButton8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑曜石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开黑曜石面板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1036,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,9 +915,6 @@
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,6 +984,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1137,23 +1064,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:N24" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N10" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N10"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序列"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名字"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="描述"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="分类"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="对应记录"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="开放等级"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="场景中显示" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="副本中显示" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="绝对坐标x"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="绝对坐标y"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="宽度"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="高度"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="所属位置流"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="路径"/>
+    <tableColumn id="1" name="序列"/>
+    <tableColumn id="2" name="名字"/>
+    <tableColumn id="3" name="描述"/>
+    <tableColumn id="4" name="分类"/>
+    <tableColumn id="5" name="对应记录"/>
+    <tableColumn id="6" name="开放等级"/>
+    <tableColumn id="14" name="场景中显示" dataDxfId="1"/>
+    <tableColumn id="13" name="副本中显示" dataDxfId="0"/>
+    <tableColumn id="7" name="绝对坐标x"/>
+    <tableColumn id="8" name="绝对坐标y"/>
+    <tableColumn id="9" name="宽度"/>
+    <tableColumn id="10" name="高度"/>
+    <tableColumn id="11" name="所属位置流"/>
+    <tableColumn id="12" name="路径"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,7 +1094,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1479,11 +1406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1499,134 +1426,134 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1646,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>-82</v>
@@ -1678,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1690,10 +1617,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1719,10 +1646,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1734,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1755,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1766,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1778,10 +1705,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1804,13 +1731,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1819,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1848,13 +1775,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1863,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1887,18 +1814,18 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1906,14 +1833,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" s="3">
+        <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1928,617 +1855,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13">
-        <v>-60</v>
-      </c>
-      <c r="J13">
-        <v>60</v>
-      </c>
-      <c r="K13">
-        <v>50</v>
-      </c>
-      <c r="L13">
-        <v>50</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14">
-        <v>-184</v>
-      </c>
-      <c r="J14">
-        <v>120</v>
-      </c>
-      <c r="K14">
-        <v>28</v>
-      </c>
-      <c r="L14">
-        <v>28</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15">
-        <v>-184</v>
-      </c>
-      <c r="J15">
-        <v>62</v>
-      </c>
-      <c r="K15">
-        <v>38</v>
-      </c>
-      <c r="L15">
-        <v>38</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16">
-        <v>-184</v>
-      </c>
-      <c r="J16">
-        <v>155</v>
-      </c>
-      <c r="K16">
-        <v>28</v>
-      </c>
-      <c r="L16">
-        <v>28</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>50</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>6</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1004</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>50</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/MainIcon.xlsx
+++ b/ConfigData/Xlsx/MainIcon.xlsx
@@ -86,25 +86,13 @@
     <t>打开主菜单(ESC)</t>
   </si>
   <si>
-    <t>MainIcon1</t>
-  </si>
-  <si>
     <t>商城</t>
   </si>
   <si>
-    <t>MainIcon8</t>
-  </si>
-  <si>
     <t>挑战</t>
   </si>
   <si>
-    <t>MainIcon5</t>
-  </si>
-  <si>
     <t>物品</t>
-  </si>
-  <si>
-    <t>MainIcon2</t>
   </si>
   <si>
     <t>int</t>
@@ -163,10 +151,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SideButton4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>序列</t>
   </si>
   <si>
@@ -231,10 +215,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>MainIcon3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>查看我的物品</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -259,7 +239,26 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>MainIcon10</t>
+    <t>mainicon1</t>
+  </si>
+  <si>
+    <t>mainicon8</t>
+  </si>
+  <si>
+    <t>mainicon3</t>
+  </si>
+  <si>
+    <t>mainicon5</t>
+  </si>
+  <si>
+    <t>mainicon2</t>
+  </si>
+  <si>
+    <t>mainicon10</t>
+  </si>
+  <si>
+    <t>sidebutton4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1410,7 +1409,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1426,134 +1425,134 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1573,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>-82</v>
@@ -1594,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1602,10 +1601,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1617,10 +1616,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1638,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1646,10 +1645,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1661,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1682,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1690,10 +1689,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1705,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1726,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -1734,10 +1733,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1749,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1770,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -1778,10 +1777,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1793,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1814,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -1822,10 +1821,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1837,10 +1836,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1858,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
